--- a/publipostage/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00552201</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00567450</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Randomized Therapeutic Study of a Treatment by Tacrolimus Adapted or Not According to the Genotype of the Cytochrome P450 3A5 After Renal Transplantation</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ropivacaine 0.75% vs Ropivacaine 0.75% Plus Mepivacaine 1.5% for Subgluteal Sciatic Bloc: a Prospective Double Blind Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT01673412</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00552201</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Research of Prognostic Factors Associated With Healing of Venous Leg Ulcers</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Randomized Therapeutic Study of a Treatment by Tacrolimus Adapted or Not According to the Genotype of the Cytochrome P450 3A5 After Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00567450</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT01673412</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ropivacaine 0.75% vs Ropivacaine 0.75% Plus Mepivacaine 1.5% for Subgluteal Sciatic Bloc: a Prospective Double Blind Randomized Controlled Study</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Research of Prognostic Factors Associated With Healing of Venous Leg Ulcers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,33 +607,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00815867</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT01815775</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Neo-PDGF</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+          <t>Predictive Value of Flow MRI in Normal Pressure Hydrocephalus Surgery</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -624,29 +645,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT01815775</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00863785</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Predictive Value of Flow MRI in Normal Pressure Hydrocephalus Surgery</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Treatment of Acute Severe Alcoholic Hepatitis With Corticoids Plus N Acetyl Cysteine Versus Corticoids Alone: a French Multicentre Randomized Controlled Study.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HAA-NAC</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -657,32 +687,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00863785</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00815867</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Treatment of Acute Severe Alcoholic Hepatitis With Corticoids Plus N Acetyl Cysteine Versus Corticoids Alone: a French Multicentre Randomized Controlled Study.</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HAA-NAC</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Neo-PDGF</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -694,34 +729,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT01219985</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Benefits Study of a Respiratory Gating Protocol for 18F-FDG PET: Application on the Liver</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>RespiTEP</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -731,28 +771,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT00396435</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Multicenter, Prospective, Randomised, Open-label Study, Evaluating the Effect of Two Levels of Haemoglobin on Quality of Life and Speed of Progression of Renal Insufficiency on Renal Transplanted Patients With Chronic Graft Dysfunction (CGD)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -764,32 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT01539967</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Is the Residual Gastric Volume After Sleeve Gastrectomy an Objective Criterion to Adapt the Treatment Strategy After Failure?</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>GASTROMANCH</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -801,99 +851,114 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT01502657</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Ultrasound Guided Percutaneous Tracheostomy in the ICU</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00769587</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01015417</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Phase II Study of Thalidomide in Mastocytosis</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Antibiotic Treatment Versus no Antibiotics in the Postoperative Acute Cholecystitis Low and Moderately Severe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ABCAL</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01015417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01441557</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Antibiotic Treatment Versus no Antibiotics in the Postoperative Acute Cholecystitis Low and Moderately Severe</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ABCAL</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+          <t>Pilot Study on the Usefulness of 3,4-diaminopyridine in the Treatment of Botulism</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,66 +969,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT01441557</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00769587</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pilot Study on the Usefulness of 3,4-diaminopyridine in the Treatment of Botulism</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Phase II Study of Thalidomide in Mastocytosis</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01879384</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01727388</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MTM</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Prospective Randomized Study Comparing the Results of Digital Rectal Examination in the Supine and Lateral Decubitus</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RIFIONA</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -974,33 +1049,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01513005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01879384</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GASTRAMBU</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MTM</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1011,33 +1091,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01220843</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01513005</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FRENCH</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GASTRAMBU</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1048,27 +1133,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT01339130</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Assessment of Social-emotional Functioning in Stroke, Frontotemporal Dementia, Alzheimer and Parkinson Diseases</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Emotion</t>
         </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1076,42 +1163,50 @@
       <c r="I18" t="b">
         <v>1</v>
       </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01727388</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT01220843</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Prospective Randomized Study Comparing the Results of Digital Rectal Examination in the Supine and Lateral Decubitus</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RIFIONA</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FRENCH</t>
+        </is>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1122,32 +1217,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT01628822</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Pilot Study, Prospective, Single Center,Randomized, Single Blind, Evaluating the Efficacy of Relaxation to 12 Weeks Against Placebo, in the Overall Care Chronic Pain in Patients With Fibromyalgia</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Sophrodol-1</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1159,70 +1259,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01935596</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01774682</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROPI-LEVO</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MARCHOBESE</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02167334</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01935596</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PANNIV</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ROPI-LEVO</t>
+        </is>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1233,32 +1343,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01774682</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02798965</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MARCHOBESE</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>GPCBasedow</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1270,70 +1385,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>NCT01786694</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Feasibility of Microdialysis by Laparoscopy</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>MTM-COLON-I</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02798965</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02167334</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GPCBasedow</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PANNIV</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1344,70 +1469,76 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02899819</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01573481</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MecoExpo Study Protocol</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MecoExpo</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Pressure Controlled Ventilation Versus Pressure Support Ventilation During the Night: New Strategy of Mechanical Ventilation Weaning?</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>REVENTIL</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01812031</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02710448</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PneumoTEP</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
+          <t>May Metformin be Used in Renal Failure?</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1418,70 +1549,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT01651676</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02899819</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EPIC</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>MecoExpo Study Protocol</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MecoExpo</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02799173</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01812031</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CALCILUP</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PneumoTEP</t>
+        </is>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1492,32 +1633,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02421003</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01651676</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blood-in-drape</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>EPIC</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1529,28 +1675,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02710448</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02799173</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>May Metformin be Used in Renal Failure?</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CALCILUP</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1562,32 +1717,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>NCT01815541</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Administration of Subcutaneous Teicoplanin in the Treatment of Osteoarticular Infections: Tolerance Study</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>TEICOPLANIN</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1599,70 +1759,80 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01573481</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02421003</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Pressure Controlled Ventilation Versus Pressure Support Ventilation During the Night: New Strategy of Mechanical Ventilation Weaning?</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>REVENTIL</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Blood-in-drape</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT01339195</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02887378</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GRECogVASC</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PincesChaude</t>
+        </is>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1673,32 +1843,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02858999</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01368094</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LPP</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+          <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1710,28 +1881,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01368094</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02803645</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="b">
-        <v>0</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1743,27 +1923,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02479529</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01339195</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SNEAD</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
+          <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>GRECogVASC</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -1771,6 +1953,9 @@
       <c r="I37" t="b">
         <v>1</v>
       </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1780,32 +1965,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02894060</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT01819792</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BIOKID</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>LAMVIRE</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1817,70 +2007,80 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT01819792</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02894060</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LAMVIRE</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BIOKID</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT02803645</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02479529</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SNEAD</t>
+        </is>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1891,32 +2091,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02887378</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02858999</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PincesChaude</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>LPP</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1928,107 +2133,122 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>NCT01839435</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>APPENDAMBU</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02818595</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02550496</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PREMAVOIX</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ETDT</t>
+        </is>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02550496</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02818595</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ETDT</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
+          <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PREMAVOIX</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2039,28 +2259,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT01306227</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03118115</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="b">
-        <v>0</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MONITRANS</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2072,32 +2301,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT03133455</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02795663</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PRFM-1</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>SCP TCI NIRS</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2107,34 +2341,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2015-000833-64</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+          <t>NCT01306227</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CELyPoR</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
+          <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2146,32 +2381,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>NCT01999634</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>MTM-COLON-II</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2183,32 +2423,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT01543321</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
+          <t>2015-000833-64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Xeladys</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CELyPoR</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2220,32 +2465,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02803671</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT01543321</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NNP-MULTIMODAL</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Xeladys</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2257,32 +2507,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>NCT03114579</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>NEXFIN</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2294,32 +2549,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03111654</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02803671</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>RIVAFAG</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NNP-MULTIMODAL</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2331,32 +2591,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02795663</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT03111654</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SCP TCI NIRS</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>RIVAFAG</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2368,32 +2633,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03118115</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03133455</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MONITRANS</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PRFM-1</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2405,32 +2675,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02800954</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT03114904</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MCSF-MYELOME</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NEUROSEV</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2442,32 +2717,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT03114904</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT03031925</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NEUROSEV</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ANLUP</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2479,32 +2759,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT03103698</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT03114930</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ANI</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>COMPLISTAN</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2516,70 +2801,80 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>NCT02422017</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Topical Timolol Benefit in Venous Ulcers</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>EETUV</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT01613664</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03103698</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TISSEEL</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
+          <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ANI</t>
+        </is>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2590,70 +2885,80 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT03114930</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02800954</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>COMPLISTAN</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MCSF-MYELOME</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT03031925</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT01613664</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ANLUP</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TISSEEL</t>
+        </is>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2664,34 +2969,39 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03502460</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Fluid Administration Limited by Lung Ultrasonography in the Operating Room: Correlation to Stroke Volume Variation (ORFALU)</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>ORFALU</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2701,28 +3011,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT03117179</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02765451</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Patient Follow-up After Consultation in Emergency Department</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="b">
-        <v>0</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ERNU</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2734,32 +3053,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT03506022</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT03646851</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>APT1</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>AspergBPCO</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2771,32 +3095,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT03589261</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03144141</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PORTEAU</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2808,32 +3137,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03144141</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT01298336</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RACE</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CAMOMY</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2845,32 +3179,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT02765451</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03589261</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ERNU</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PORTEAU</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2882,32 +3221,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02821078</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT02770235</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>HEPAFLUX</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>APGADEPD</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2919,32 +3263,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03646851</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT02821078</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AspergBPCO</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>HEPAFLUX</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2956,32 +3305,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT01298336</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT03117179</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CAMOMY</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
+          <t>Patient Follow-up After Consultation in Emergency Department</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2993,107 +3343,122 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02770235</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT03506022</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>APGADEPD</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>APT1</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02819739</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT02786056</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CARDIOX</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
+          <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PULMOREM</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02786056</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02819739</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PULMOREM</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CARDIOX</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3104,32 +3469,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT03140332</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT03984669</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>HCC-CTPerf</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>(1,3)-Béta-D-Glucan Levels at Diagnosis of Juvenile Idiopathic Arthritis and Its Correlation With Activity's Disease : a Cohort Sudy</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BDG -JIA</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3141,32 +3511,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>NCT03964285</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Impact of Rumination on Affectivity After Physical Activity in Fibromyalgia</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>PRFM-3</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3178,32 +3553,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT03984669</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT03140332</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>(1,3)-Béta-D-Glucan Levels at Diagnosis of Juvenile Idiopathic Arthritis and Its Correlation With Activity's Disease : a Cohort Sudy</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BDG -JIA</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>HCC-CTPerf</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3215,34 +3595,39 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>NCT02963883</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>PITT</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3252,32 +3637,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT03998397</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03008642</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SEOBACED</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Poly-CO</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3289,32 +3679,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT03008642</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT03998397</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Poly-CO</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>SEOBACED</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3326,32 +3721,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>NCT04341597</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Evaluation of Transperineal Ultrasound Technic for Diagnostic Shorted Cervical Length for Pregnant Women (2nd and 3rd Trimester) Compared to Endovaginal Technic (Gold Standard)</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>ECHO</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3363,32 +3763,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT03877016</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03882320</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>QolTENS</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MEZO</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,32 +3805,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>NCT04049955</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Endoscopic Management of Fistulas Related to Sleeve Gastrectomy With Double Pigtail Stents According to the BARTOLI Technique : an Interventional Multicentric and Prospective Study.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>bartoli</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3437,32 +3847,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT03139045</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT03877016</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VeinGER</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>QolTENS</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3474,32 +3889,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03882320</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT03139045</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MEZO</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>VeinGER</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3511,32 +3931,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT03976505</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Study of Comprehension and Execution of Medication Prescriptions Displayed on Touch-screens and Tablets in Parkinsonian Patients and Healthy Volunteers</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>TACTIPARK</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3548,32 +3973,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>NCT02895750</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Efficacity and Safety of Metformin XR in CKD Stage 1 to 3</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>METXR/CKD</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3585,32 +4015,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT05132036</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT02002572</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EP8SH</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>SIMOVI-IRM</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3622,32 +4057,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT02002572</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT05132036</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SIMOVI-IRM</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>EP8SH</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3659,32 +4099,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT05701020</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04700631</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EVASEF</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>VE-IRC</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3696,32 +4141,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT04270136</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>AMASTEC</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3733,32 +4183,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT04469491</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT05701020</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>COV-NI</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>EVASEF</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3770,107 +4225,122 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT05649839</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT05404737</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>GERONESIE</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>RVLSBO</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT03852147</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT04469491</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OPHIQUE</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
+          <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>COV-NI</t>
+        </is>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT03140748</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT03852147</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>PERIGLUC1</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>OPHIQUE</t>
+        </is>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3881,32 +4351,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT05922956</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT03927079</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>REF-BIP</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ABBA</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3918,32 +4393,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT03874923</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT05815134</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>KOBIAS</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ENDO-FIV</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3955,32 +4435,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT04700631</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT05922956</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>VE-IRC</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>REF-BIP</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3992,32 +4477,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT04350502</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT03874923</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PK-plèvre</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>KOBIAS</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4029,32 +4519,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT03927079</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT03140748</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ABBA</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>PERIGLUC1</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4066,32 +4561,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT05103189</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT05573659</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>HTPFLUW</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>EVITREC</t>
+        </is>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4103,32 +4603,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCT05573659</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NCT04794634</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>EVITREC</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
+          <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>RETEVAL</t>
+        </is>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4140,32 +4645,37 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT04222010</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT05103189</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>thoracoscopic</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>HTPFLUW</t>
+        </is>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4177,32 +4687,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT04794634</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT05769244</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>RETEVAL</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SPIRETTE</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4214,32 +4729,37 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT05815134</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT04350502</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ENDO-FIV</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PK-plèvre</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4251,32 +4771,37 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT05769244</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT04172818</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SPIRETTE</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
+          <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>JACintHE</t>
+        </is>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4288,32 +4813,37 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCT04048239</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NCT04222010</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ROSA-IC</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
+          <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>thoracoscopic</t>
+        </is>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4325,32 +4855,37 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT04172818</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT04048239</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>JACintHE</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
+          <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>ROSA-IC</t>
+        </is>
       </c>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4362,32 +4897,37 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCT05404737</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT05649839</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>RVLSBO</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
+          <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>GERONESIE</t>
+        </is>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4399,32 +4939,37 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>NCT06094322</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>Advanced DL-based T2w and DWI MR Sequences for Prostate Imaging</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>DLRPRO</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4436,32 +4981,37 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>NCT04103762</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Interest of Intravenous Cholangiography With Indocyanine Green, Compared to Contrast Cholangiography, in the Context of Laparoscopic Cholecystectomy for Grade 1 and 2 Acute Gallstone Cholecystitis: Prospective, Monocentric, Randomized Study</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>VIFCAL</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4471,96 +5021,111 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>NCT01628952</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2021-005508-37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Evaluation of plasma concentrations of intravenous lidocaine and epidural ropivacaine when used in combination in major abdominal surgery 
+ Évaluation des concentrations plasmatiques de la lidocaïne intra veineuse et de la ropivacaïne utilisée par voie péridurale lors de leur association dans les chirurgies abdominales majeures.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>LARA 
+ LARA</t>
+        </is>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>2020-001892-34</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
         <is>
           <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b added to lopinavir/ritonavir: Feasibility, Efficiency and Safety Study 
  Traitement du COVID-19 : Etude de faisabilité, d’efficacité et de sécurité de l’ajout de Nébubilisation d’Interferon Beta 1b au lopinavir/ritonavir</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>COV-NI 
  COV-NI</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2021-005508-37</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Evaluation of plasma concentrations of intravenous lidocaine and epidural ropivacaine when used in combination in major abdominal surgery 
- Évaluation des concentrations plasmatiques de la lidocaïne intra veineuse et de la ropivacaïne utilisée par voie péridurale lors de leur association dans les chirurgies abdominales majeures.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>LARA 
- LARA</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>NCT01628952</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4570,31 +5135,36 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
         <is>
           <t>2016-001233-27</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
         <is>
           <t>Efficacity and safety of metformin extended release (XR) in diabetic patients with CKD in stages 1 to 3 (METXR/CKD) 
  Efficacité et tolérance de la metformine à diffusion prolongée (XR) chez le sujet diabétique dans les stades 1 à 3 d’insuffisance rénale chronique</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>METXRpourIRC</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
         <v>1</v>
       </c>
     </row>

--- a/publipostage/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +887,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -960,6 +1020,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -998,6 +1063,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1040,6 +1110,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1082,6 +1157,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1204,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,6 +1251,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1298,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1345,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1392,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1439,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1486,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1418,6 +1533,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,6 +1580,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1627,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1540,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,6 +1717,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1624,6 +1764,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1666,6 +1811,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1708,6 +1858,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1750,6 +1905,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1792,6 +1952,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1834,6 +1999,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1872,6 +2042,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,6 +2089,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1956,6 +2136,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1998,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2040,6 +2230,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2082,6 +2277,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2124,6 +2324,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,6 +2371,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2208,6 +2418,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2250,6 +2465,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2292,6 +2512,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2334,6 +2559,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2372,6 +2602,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2414,6 +2649,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2456,6 +2696,7 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2498,6 +2739,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2540,6 +2786,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2582,6 +2833,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2624,6 +2880,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2666,6 +2927,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2708,6 +2974,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2750,6 +3021,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2792,6 +3068,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2834,6 +3115,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2876,6 +3162,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2918,6 +3209,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2960,6 +3256,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3002,6 +3303,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3044,6 +3350,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3086,6 +3397,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3128,6 +3444,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3170,6 +3491,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3212,6 +3538,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3254,6 +3585,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3296,6 +3632,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3334,6 +3675,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3376,6 +3722,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3418,6 +3769,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3460,6 +3816,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3502,6 +3863,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3544,6 +3910,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3586,6 +3957,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3628,6 +4004,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3670,6 +4051,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3712,6 +4098,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3754,6 +4145,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3796,6 +4192,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3838,6 +4239,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3880,6 +4286,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3922,6 +4333,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3964,6 +4380,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4006,6 +4427,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4048,6 +4474,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4090,6 +4521,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4132,6 +4568,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4174,6 +4615,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4216,6 +4662,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4258,6 +4709,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4300,6 +4756,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4342,6 +4803,11 @@
       <c r="J94" t="b">
         <v>1</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4384,6 +4850,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4426,6 +4897,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4468,6 +4944,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4510,6 +4991,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4552,6 +5038,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4594,6 +5085,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4636,6 +5132,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4678,6 +5179,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4720,6 +5226,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4762,6 +5273,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4804,6 +5320,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4846,6 +5367,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4888,6 +5414,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4930,6 +5461,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4972,6 +5508,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5013,6 +5554,11 @@
       </c>
       <c r="J110" t="b">
         <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5048,6 +5594,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5088,6 +5639,7 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5128,6 +5680,7 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5167,6 +5720,7 @@
       <c r="J114" t="b">
         <v>1</v>
       </c>
+      <c r="K114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
